--- a/Marketing/cuboulder.roomme.xlsx
+++ b/Marketing/cuboulder.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/Marketing/cuboulder.roomme.xlsx
+++ b/Marketing/cuboulder.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">

--- a/Marketing/cuboulder.roomme.xlsx
+++ b/Marketing/cuboulder.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">

--- a/Marketing/cuboulder.roomme.xlsx
+++ b/Marketing/cuboulder.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>max_hughes_24</t>
+          <t>owen_sheehann</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jack.tannenbaum</t>
+          <t>sarah.sternn</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>chrlkd</t>
+          <t>sophia_chiavaroli</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beachbroski</t>
+          <t>camille.welborn</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>benn.alexannder</t>
+          <t>colinmieske</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sophiasolezahn</t>
+          <t>carlyyychamlin</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>abby.weiss_</t>
+          <t>emmagentile._</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>evannherr</t>
+          <t>bradymarich_</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>loganrmoist</t>
+          <t>_katiebrummer</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>peytonlassek</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nathanmhunt</t>
+          <t>maxapeterson</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jon_gunsel</t>
+          <t>shaydenmerrill</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>charles_feary</t>
+          <t>aston.furst</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>katherine.tolerwright</t>
+          <t>jackrubenstein</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>iveylark</t>
+          <t>elizabeth_walsh</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>j0nostrom</t>
+          <t>pmahoney_11</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>trev.peck</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>valentine.__.motte</t>
+          <t>brooke.raw05</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>elsadobosz</t>
+          <t>braydenishungry</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>alexisalavoie</t>
+          <t>alessandro_tepate</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dsstbyers2023</t>
+          <t>nils__wolf</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>roanmacphee</t>
+          <t>ezra.oheb</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>chloealexis30</t>
+          <t>blake_cordes</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dylanbe11</t>
+          <t>reedjcbs</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>gigi_smith9</t>
+          <t>jb_2024</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jane_kenzie</t>
+          <t>max_hughes_24</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cameronjmann</t>
+          <t>charlee.f23</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>thewyattreid</t>
+          <t>garrett.rose8</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>samssarma</t>
+          <t>michaelaflavored</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jac.ksonmurray</t>
+          <t>mazieannekirk</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>paulinaahead</t>
+          <t>joey_sawtelle</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pei_hu0507</t>
+          <t>karolina.jaskot</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>alex_benz.09</t>
+          <t>mads.m828</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>manarrmo</t>
+          <t>vannfam2001</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ellamschadt</t>
+          <t>william__alexander13</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>josh.cala</t>
+          <t>ella.vonderahe</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t.doldo</t>
+          <t>siannivasquez</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mckayley.lane</t>
+          <t>sammy12bammy</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>chance.chvatal1</t>
+          <t>trace.beuhler</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>yjosephkim</t>
+          <t>mandi.io</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>taylor_blakley</t>
+          <t>bellaereno</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>noahstanukinas</t>
+          <t>evankostylo</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0livia_lopez</t>
+          <t>dorrinashrfi</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>alliebbeach</t>
+          <t>joe_capo04</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mileyblackkk</t>
+          <t>alina_patell</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>martynaszwejk</t>
+          <t>jesseblumenfeld_</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jordan_r_chang</t>
+          <t>jfish1711</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>montedeoca41</t>
+          <t>ally_tito</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>_micahz</t>
+          <t>lilahtuch</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>leiakliska</t>
+          <t>brooklyn.millage</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>tatestark4</t>
+          <t>jackrnelson1</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>thomasholberry</t>
+          <t>ckseaberg</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>owentan11</t>
+          <t>koro_953</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>laurenleyrer</t>
+          <t>arianna.bergman</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>arjundlwd</t>
+          <t>andrew_sandwisch</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_deanreeves</t>
+          <t>bwalorz</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bitteerrsweett</t>
+          <t>rebekkad.04</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>liv.davis2</t>
+          <t>tateryan_</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>joanna.aguirre20</t>
+          <t>wiat_tiler</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ben____lewis</t>
+          <t>dhanahenouda</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>isaac_.newman</t>
+          <t>alison_corrente</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>maliaa_zeeb</t>
+          <t>averygardnr</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>zoewestmann</t>
+          <t>spencer_mcp</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>garret.l15</t>
+          <t>micheleneee</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>devlin_rylie</t>
+          <t>zoeygassner</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>makena_ledin</t>
+          <t>nicoleholyer</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>alejandro_ortizz10</t>
+          <t>drew.carlson44</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>glenkress</t>
+          <t>allsortzofbortz</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>loganmdixon</t>
+          <t>torenknepper</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>glaw_907</t>
+          <t>jesssicagallardo</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jackson_mahedy</t>
+          <t>patrickmaring_</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>zach.goldenberg1</t>
+          <t>jackson_rickards</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>_wilder_rothberg_</t>
+          <t>ryan.rogers.13</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>peytongrunfeld</t>
+          <t>jack_gerald_</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>alessandro_tepate</t>
+          <t>amirachapman</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>lexi.brigham</t>
+          <t>ethancurrie__</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>samkartheiser</t>
+          <t>shfriel</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>annamariee.16</t>
+          <t>nicoaross</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>kira.starick</t>
+          <t>fortneygavin</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sydney.stepek</t>
+          <t>_natalielyonss</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sam.kaplinsky</t>
+          <t>bettinavieira1</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kyle.kinkel</t>
+          <t>charlie_singleton22</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>_cano__nando_</t>
+          <t>loganrmoist</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>therealgusconners</t>
+          <t>owenthayer0</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jackrnelson1</t>
+          <t>manu_huertas10</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>lachlannhawes</t>
+          <t>djordan860</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>_kiraanlinsmith_</t>
+          <t>joshj1678</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mallorynelsonn</t>
+          <t>sophia.jellyfish</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>davisnagel</t>
+          <t>ryan_boggs101</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>s.andrew11</t>
+          <t>nicole_kale</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>archerspelman</t>
+          <t>jamison_watts</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jackkleiner12</t>
+          <t>anxonyy</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ma_cas13</t>
+          <t>lidiya_backup3</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>nick.henry330</t>
+          <t>finncrowder</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>elijason</t>
+          <t>tysonshepard27</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ethancurrie__</t>
+          <t>carolinesilvia4</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>reagannmcnally</t>
+          <t>kennedy.may3</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>annavondungen</t>
+          <t>darcyandersonn</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>adam_zamir</t>
+          <t>bryce.weisser</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>beccastonge</t>
+          <t>liamenavin</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>max_maman</t>
+          <t>nathandoerr_</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>elvaloomis</t>
+          <t>emmaa.muellerr</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sophia.marianac</t>
+          <t>nathanmhunt</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mandi.io</t>
+          <t>laurenbayerrr</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sophiaa.bandi</t>
+          <t>elsadobosz</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>orylnatalia</t>
+          <t>avery.shook</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>rachelmarkleyy</t>
+          <t>xoxo.keirableu</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bryce.weisser</t>
+          <t>gavin._.wallace</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ballout_nils</t>
+          <t>alexatrau</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>matts.no.sleep</t>
+          <t>belle.vanvliet</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>madicronkhite</t>
+          <t>taylorrfarrelll</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>jake.perruccio</t>
+          <t>bayleemac</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ava.rozsits</t>
+          <t>erikmayerr</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>graysenkalamaras</t>
+          <t>kyliedomaleski</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>roman_scharbo</t>
+          <t>erinwilder_</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>arianna.bergman</t>
+          <t>garret.l15</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>finncrowder</t>
+          <t>jack.kraynick</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>mckennaogreen</t>
+          <t>ellarosepf</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>aryanaborjas</t>
+          <t>ellathomas1168</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>noswad_the_king</t>
+          <t>riwaxman</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,107 +1648,107 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>kyrapeyton.a</t>
+          <t>abbywill_0407</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>boulder.apd</t>
+          <t>shreeya.malvi</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>alysonfolkens</t>
+          <t>t_wobby</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>daxton_devengoechea</t>
+          <t>nickharlo.w</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>maggi3vans</t>
+          <t>peyton.skaletski</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jack.stacey2</t>
+          <t>jeffreydratch</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>emmacaldwellstewart</t>
+          <t>mylesrubin10</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>james.love.tt</t>
+          <t>ava_b3rrie</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tate_voeller</t>
+          <t>brynley.griffiths</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>theheartbreaksoldierrrrrrrr</t>
+          <t>chloelarson42</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>wyatt05lahr</t>
+          <t>sophieparks__</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>samo_oakes</t>
+          <t>_allieengle</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ebuchholz30</t>
+          <t>tatefarrell_</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>_cade10</t>
+          <t>ericdub05</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>r0seatw00d</t>
+          <t>natejackson44</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>zacharyryan.3</t>
+          <t>isaac.hepper</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>janisashaffer</t>
+          <t>katemurphy_chslax</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jacksonnmcbride</t>
+          <t>mxhuangg</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jestes.3</t>
+          <t>ganoncarr</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>_maddy_ross</t>
+          <t>laurennpelletier</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lauren_jeffrey16</t>
+          <t>lexi.vas</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>graeme_da_man_and_1690_others</t>
+          <t>zkuropas</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>e.tang_05</t>
+          <t>1fhis</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>benjaovnik</t>
+          <t>tb._.2</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rmulholland_17</t>
+          <t>mayaadickerson</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>__megansparks</t>
+          <t>karinaheinrich__</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>_benhoier_</t>
+          <t>lukeokamp</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>nxxr14</t>
+          <t>camden_crawford</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jakegoetz_</t>
+          <t>nadeenaayoub</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>heatherwenner</t>
+          <t>newoshmit</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>mazieannekirk</t>
+          <t>max5ullivan</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jack_walz3848</t>
+          <t>avatizzio</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>frances__glenn</t>
+          <t>jackbigelow1</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>blanestauffer</t>
+          <t>bridger_car</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>mattxlerner</t>
+          <t>najma.jeylanii</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>zionrogers</t>
+          <t>nicktuttle__</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jason_nordgren</t>
+          <t>lexii_mejia</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ryan.rogers.13</t>
+          <t>rileyshanahan</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lauren.machock</t>
+          <t>xcrystal.jamesxx</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dylan.a.bett</t>
+          <t>ava.pulkrabek</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>laratolstoi</t>
+          <t>sashab211</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>brinstrand</t>
+          <t>katie_.myers</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>miajoelie</t>
+          <t>oliviaoenning_</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>_camcarlson_</t>
+          <t>jay_phillips22</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>amina_grace</t>
+          <t>tobegood_steinbeck</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sarinachenn</t>
+          <t>marygracelamarr</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>tanner.donohue</t>
+          <t>rebeccabadeaux</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ganoncarr</t>
+          <t>cate_mcdougall</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>destineytrejo</t>
+          <t>schaefer_188</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>askthe_max</t>
+          <t>samantha.lu22</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>josh._bissett</t>
+          <t>ben_perryyy</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sam_kuts</t>
+          <t>malaya_cimino</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>anthonyskumburdes</t>
+          <t>grantbetner</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>fortneygavin</t>
+          <t>o.p.massimino</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>777lucia_10</t>
+          <t>charlie.alegranti</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_kianthompson</t>
+          <t>will_freimuth</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>nate.meek</t>
+          <t>rafa_del_blanco</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>hayden_heit</t>
+          <t>bliss.vimbor</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>than.1626</t>
+          <t>a1excough1in</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>mollymtracy</t>
+          <t>carlirepass</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ari.brodsky</t>
+          <t>sarah.feltman</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>jennarobertsjr</t>
+          <t>camilleangiel</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sydneynelson__</t>
+          <t>jackgreenwood0</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>_asherleish</t>
+          <t>biancamgiacomo</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>peyton.skaletski</t>
+          <t>kaylabeebower</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>izzezschau</t>
+          <t>ivangonzales06</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>sam.burdi</t>
+          <t>beccastanford7</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>rohith.ratheesh</t>
+          <t>brynn.weisser</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>courtneyy.cullen</t>
+          <t>sofiekidd</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>jackwhitaker7</t>
+          <t>james.love.tt</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>genevievekim_</t>
+          <t>julia.trimble24</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>_connorcornell</t>
+          <t>cconsidine68_</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>bobby.kilburg</t>
+          <t>marinbrookee</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>__veronica.m__</t>
+          <t>_elledaviss</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>aflunat1c</t>
+          <t>eliana.esquibel</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>jack_vestal_</t>
+          <t>makaylac.05</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jetta.schomburg</t>
+          <t>connergroth</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>riley.walter04</t>
+          <t>addi.rafferty</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>trevorr.montoya</t>
+          <t>lowags2005</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>roman_solmos</t>
+          <t>camdyn.malone</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>dylanjette11</t>
+          <t>vaciaann</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kate.bowser16</t>
+          <t>deliacooperr</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>merryn.madison</t>
+          <t>_benhoier_</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>hay.leeluv31</t>
+          <t>libbyrosato</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>zoeygassner_</t>
+          <t>paytondaniels</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>wesb21</t>
+          <t>_finn.ack_</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>mmcgovern_</t>
+          <t>matt_rudd_</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>alex.anim24</t>
+          <t>_nataliestarr_</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ali_minhaj1</t>
+          <t>mo_cleveland</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>michmischley</t>
+          <t>majawegrowski</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>rileywiener</t>
+          <t>sydneynelson__</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>xoxo.keirableu</t>
+          <t>benmcdermott.31</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>lexi.vas</t>
+          <t>zachlugenbill</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>benneufeld35</t>
+          <t>createdbybrady</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>laurenbayerrr</t>
+          <t>emmieshannon_</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>matt_rudd_</t>
+          <t>leesa23ann</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>felixfeiger</t>
+          <t>_sophiamassaro</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ella.reagan12</t>
+          <t>anna.vogtt</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>n0ah.harms</t>
+          <t>max_maman</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>sarah.feltman</t>
+          <t>liza.raykina</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>brett.concors</t>
+          <t>cecedibella</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>harpear_123</t>
+          <t>parker.pew</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>maddie.groth</t>
+          <t>alex_aaron81</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>keatonhagedon</t>
+          <t>katelyn.hofff</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>starshineroshell</t>
+          <t>finnpeterson04</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>sophiecoleman55</t>
+          <t>alex_benz.09</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>dylan.joudieh</t>
+          <t>b_huerter</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>marinlabor</t>
+          <t>annavondungen</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>raylinharrell</t>
+          <t>sallyberinger</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>amanda.sherter</t>
+          <t>nicohdeleon</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>sarahmdonovan</t>
+          <t>kacy._.05</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>cullen.turner01</t>
+          <t>jake.martin60</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>jakefarrell71</t>
+          <t>asedita11</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>joaquin.mendoza04</t>
+          <t>starry.eyed.samruddhi</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>tyler_buchanan13</t>
+          <t>kaylinleydon</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>karsonanthony1</t>
+          <t>paulinaahead</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>bramleylegg</t>
+          <t>ari.brodsky</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>mattywoonyc</t>
+          <t>alejandro_ortizz10</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>benrilienza</t>
+          <t>aflunat1c</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>adriennerothh</t>
+          <t>jack.stacey2</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>kate.latino</t>
+          <t>ellie.delsesto</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>charlottepianko</t>
+          <t>mazzy.grace3</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>jackrubenstein</t>
+          <t>avaxnguyen</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jesserees12</t>
+          <t>mattxlerner</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ryanngoldsmith</t>
+          <t>willdurf</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>chlobearpinto</t>
+          <t>_garrettcovney_</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>rafa_del_blanco</t>
+          <t>tydousevicz</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>hodges022</t>
+          <t>brody_kretz</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>jack_polster</t>
+          <t>rhettk47</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>eli_eckoff</t>
+          <t>brayden.bacon</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>sierra.remer</t>
+          <t>kyle.kinkel</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>katelynwhitcomb_</t>
+          <t>aydancelinski</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>rachelevancho</t>
+          <t>anna.caterina._</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>a1excough1in</t>
+          <t>bramleylegg</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>nathan.lebeda</t>
+          <t>kyle__smithhh</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rileyowheeless</t>
+          <t>gabe_v28</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>alexa_cruz4</t>
+          <t>mady.h02</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ava_b3rrie</t>
+          <t>ben____lewis</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>averyy_annn</t>
+          <t>ethanngreer</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kate.marcus_</t>
+          <t>eli.biggers</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>jack_samet</t>
+          <t>eshan.kulkarni47</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sky.sosna</t>
+          <t>brinstrand</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>keonaschaller</t>
+          <t>_kylafoohey</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>quinnbienvenu</t>
+          <t>maddiejoscott</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>yosoyd3v</t>
+          <t>lizzie.mcc0y</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>luke.tape</t>
+          <t>trevor_wilson05</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>beatricedouglass</t>
+          <t>mandyatenciofaurot</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>sophiaawh</t>
+          <t>richpadgett_</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>_kianna.day_</t>
+          <t>bexniewood</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>seb.toro</t>
+          <t>orylnatalia</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>elizabeth_walsh</t>
+          <t>danikapackard</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>_j_o_s_h_weiner</t>
+          <t>_kianna.day_</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>alessia.1447</t>
+          <t>emilyyy.hamann</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>lilone8447</t>
+          <t>averyflagg</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t_wobby</t>
+          <t>asherseidenberg</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>bry.bruns_</t>
+          <t>ellamhartnett</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>nickharlo.w</t>
+          <t>braden.turner4</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>alison_corrente</t>
+          <t>gracieashton</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ifconthehill</t>
+          <t>sal.blumberg</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>janataalex</t>
+          <t>elizabethmcdermott13</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>bellaereno</t>
+          <t>miamccorry</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>cfmcveigh111</t>
+          <t>reseska_neva</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>rocco_chartrand</t>
+          <t>melbuccii</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>brindunc</t>
+          <t>jadyng1</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jackboggio</t>
+          <t>joaquin.mendoza04</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_joshw04</t>
+          <t>felixfeiger</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>alliemccorkle</t>
+          <t>chris_karg05</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>jakee.nelson</t>
+          <t>shona.doyle0</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>cocodehdan</t>
+          <t>maddygclark</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>peytonshore</t>
+          <t>willregr</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>jackson_rickards</t>
+          <t>natelobocki</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>_sawyerg</t>
+          <t>brindunc</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>billyd112</t>
+          <t>grant.juergens</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cdeaton64</t>
+          <t>dolcebauer</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>eli.biggers</t>
+          <t>ezra_neal33</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>maayane.d</t>
+          <t>luciee.g</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>mady.h02</t>
+          <t>zach_rub</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>anupyana</t>
+          <t>haleyhallbergg</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>mithica._._</t>
+          <t>_connorcornell</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>drew.carlson44</t>
+          <t>maliadonoghue</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>robbycoburn</t>
+          <t>lilyherzog05</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>laura.m.jumper</t>
+          <t>kalyn_gilson</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>leekleinman_</t>
+          <t>benevanfrank</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>grace_whitty</t>
+          <t>kim_look19</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>maxsanden</t>
+          <t>_cade10</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>chloelarson42</t>
+          <t>ryan.falender</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>trey_torykian</t>
+          <t>benstein26</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>alec_martin45</t>
+          <t>pechousryan</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>graceekatz</t>
+          <t>mylawilkes</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>enzosilly</t>
+          <t>wyatt05lahr</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>morrchaney</t>
+          <t>mobbs.emily</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>owen_sheehann</t>
+          <t>ssuchowolec</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>tayylorschulz</t>
+          <t>nava.alene</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ellajamsay</t>
+          <t>sophie.w23</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>brendangriffith_</t>
+          <t>annabelle.speers</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>drew.harris06</t>
+          <t>lillian_koster</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>grant.juergens</t>
+          <t>jonas_bisard</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jonas_bisard</t>
+          <t>wheaton.ethan</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>mryyam.11</t>
+          <t>joeycoan</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>carlirepass</t>
+          <t>_lilapowell</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>cj_heinke</t>
+          <t>ivy.hinds</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>sophie.w23</t>
+          <t>kianacsigel</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>wil.thomas7</t>
+          <t>bree.oneal</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>nick_kanefield</t>
+          <t>lukaszikas456</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>max_pogoloff</t>
+          <t>will.schrama</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>rosielicious04</t>
+          <t>55dannyedwards</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>melbuccii</t>
+          <t>ethanschwartzzz</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>peyton.28385</t>
+          <t>hamd_aomarr</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>jacoblehman3</t>
+          <t>kyle_wisbach</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>bammy2006s</t>
+          <t>leiakliska</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>luke.daly7</t>
+          <t>jack.doolittle</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>cecewrightt</t>
+          <t>lilywade__</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>aalper23_blur</t>
+          <t>kmalc19</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>charlie_shideman</t>
+          <t>real.gabriel2</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>emmieshannon_</t>
+          <t>brett.concors</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>belle.vanvliet</t>
+          <t>crossgrove_andy</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>lexihamburger</t>
+          <t>aebeck12</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>chadbernon</t>
+          <t>kieragcochran</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>mason___weires</t>
+          <t>gl4sshouse</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>anniewagss</t>
+          <t>spencer_fiske</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>cate.simps</t>
+          <t>_chelseamartin</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>jadenramirezz</t>
+          <t>hannah.gabrielson</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>jakejohnsonje2</t>
+          <t>cavok_3</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ellamlorenz</t>
+          <t>kiana.sohrabb</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>lissa_l1975</t>
+          <t>ella.pattersonnn</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>sophieparks__</t>
+          <t>meena.shahri</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>zach.geezenslaw</t>
+          <t>nicole.fasano</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>patdellasala</t>
+          <t>connor_zeit</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>lidiya_backup3</t>
+          <t>tay.wein</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>mxhuangg</t>
+          <t>nick.henry330</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ezra_neal33</t>
+          <t>t.doldo</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>luxoden_nic3</t>
+          <t>tayylorschulz</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>maya.fahyy</t>
+          <t>maxgoodmn</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>vegaa.liv</t>
+          <t>sydneydobecki</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>lukecuhl</t>
+          <t>manarrmo</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>holdenxfoster</t>
+          <t>drake_miller28</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>mobbs.emily</t>
+          <t>lexy_greene</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>isaac.hepper</t>
+          <t>jacobgr.ei.f</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>jeremiahlucero440</t>
+          <t>charlottelbrod</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>evankostylo</t>
+          <t>hunterboyle_</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>gabypixs</t>
+          <t>lizzie.chil</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>patrickmaring_</t>
+          <t>nate.stjohn</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>hiyumiwijesekara</t>
+          <t>sanoceanrita</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>cooper_druck</t>
+          <t>arya.roy17</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ashritha.97</t>
+          <t>sofia.hunterk</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>thatchergtaylor</t>
+          <t>jeremykanter11</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>jake.martin60</t>
+          <t>shelby.mariiee</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>grantbetner</t>
+          <t>samhilbert4</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>jesseblumenfeld_</t>
+          <t>jakevonhellens</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>owenle510</t>
+          <t>kamil_ali23</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>sadieegibson</t>
+          <t>ashley__beeler</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>jessiecarlin</t>
+          <t>maddiemark29</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>izzybernbaum</t>
+          <t>katherine.tolerwright</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>deliacooperr</t>
+          <t>lexishrumm</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>hannah.gabrielson</t>
+          <t>elsapetersonn</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>jay_phillips22</t>
+          <t>drew.fliszar</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>caelenfry</t>
+          <t>willkeller__</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ellathomas1168</t>
+          <t>siennaespositoo</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>xavier_nuss</t>
+          <t>noswad_the_king</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>tateryan_</t>
+          <t>robbycoburn</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>tessasoomee</t>
+          <t>mbossolina_</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>tatimalena</t>
+          <t>ashlynbabbitt</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>emilyseftonn</t>
+          <t>chance.chvatal1</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>kirapow3ll</t>
+          <t>forrest._will</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>tasha_bvv</t>
+          <t>wolmert_</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>jjoshkesner</t>
+          <t>ashleymandell06</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>dylanfong_</t>
+          <t>lily.hiness</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>jamison_watts</t>
+          <t>delaneymarshh</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>andrew_sandwisch</t>
+          <t>ashleydanng</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>mercer.murton</t>
+          <t>___miaramirez</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>landongiordano_</t>
+          <t>ade.glenn</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>molliezerr</t>
+          <t>isaac_.newman</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>sarahtepsic</t>
+          <t>delaneymalley</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>willregr</t>
+          <t>tpwkaudreyyy</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>sophiewilloughbyy</t>
+          <t>rmulholland_17</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>olivia.vandeveld</t>
+          <t>michelle.aftosmis</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>amelia_erin062918</t>
+          <t>aliceturcoo</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ryan_boggs101</t>
+          <t>oliviaaledford</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>shfriel</t>
+          <t>marlowee.a</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>davidjoshii</t>
+          <t>naomi.l.levy</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ronan_healy_</t>
+          <t>adencgold</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>matteo.305</t>
+          <t>harperpivbro</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>benstein26</t>
+          <t>suzannadicarlo</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>_marinbennett_</t>
+          <t>scar.wieds</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>me1iapuga</t>
+          <t>laratolstoi</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>amarisdoty</t>
+          <t>abby.chesson</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>natelobocki</t>
+          <t>jessieconn0rs</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>steelwylie</t>
+          <t>jakegoetz_</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>averyj280</t>
+          <t>lucaslevy13</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>shann0n_26</t>
+          <t>sophiewilloughbyy</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>lucien.j.king</t>
+          <t>janataalex</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>shreeya.malvi</t>
+          <t>alliemccorkle</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>roman_walker___</t>
+          <t>seanbodnarr</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>avaa.valente</t>
+          <t>laura._.brockmann</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>mason_melegari23</t>
+          <t>el._.moore</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ryan.falender</t>
+          <t>bugito_</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>will_freimuth</t>
+          <t>juliette.angiel</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>kraft.domanickk_</t>
+          <t>avery.ariano</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>schaefer_188</t>
+          <t>lucy.eklund</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>pmahoney_11</t>
+          <t>madeleinemullerr</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>benjamin_maginsky</t>
+          <t>sophiecoleman55</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>anxonyy</t>
+          <t>jack_samet</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>bella.arney</t>
+          <t>lexi_tegan</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>holly._.weiss</t>
+          <t>anna.dethomas</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>genetdahl</t>
+          <t>sarinachenn</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>sofiaburke05</t>
+          <t>piper.wyman</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>christian.ordetx</t>
+          <t>jamespolitzz</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>jessicaarichterr</t>
+          <t>_asherleish</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>bridger_car</t>
+          <t>penelopmckean</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>radhaphi</t>
+          <t>riley.farias</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>wooder.boy</t>
+          <t>cnahumyk17</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>_lilapowell</t>
+          <t>_jessicajacobson</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>katelynguensch</t>
+          <t>blanestauffer</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>mollydarroww</t>
+          <t>sohan.a_</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>danielbrito.1</t>
+          <t>abby_reohr</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>omgitsjpach</t>
+          <t>gwenylopez</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>wheaton.ethan</t>
+          <t>kennedycullumm</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>andreaasoflate</t>
+          <t>grace_whitty</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>gavinwehrle04</t>
+          <t>johngalloway23</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>henry_carr16</t>
+          <t>sterling.leee</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>thumbs_up_phish</t>
+          <t>addi__adams</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>alexcox.10</t>
+          <t>dexter_gordon_13</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>hayden__alfonso</t>
+          <t>marrisjoe69</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>maggieclarke30</t>
+          <t>aj_giacomini</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>calvinwagner.14</t>
+          <t>emmazawatski</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>calvinanderson_05</t>
+          <t>teaganryan3</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>natejmartin</t>
+          <t>henry_brg28</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>olivia.soniat</t>
+          <t>elise.parkinson</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>siannivasquez</t>
+          <t>nataliekrierr</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>brookemansfield_</t>
+          <t>kassandracrespo_</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>zioncarvajalesv.2</t>
+          <t>gurneetb21</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>joshkalisher</t>
+          <t>rand.mataz</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>_sedona_a</t>
+          <t>max_aceved</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>summer.gould</t>
+          <t>leamichaelian</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>kira.kuhl</t>
+          <t>jennagroff</t>
         </is>
       </c>
       <c r="B456" t="b">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>lilymillss</t>
+          <t>carolinegibson._</t>
         </is>
       </c>
       <c r="B457" t="b">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>viktor.ostergaard</t>
+          <t>amma_dicesare</t>
         </is>
       </c>
       <c r="B458" t="b">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>theomarple</t>
+          <t>shan_dannaway</t>
         </is>
       </c>
       <c r="B459" t="b">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>joshua.romero5</t>
+          <t>reganrickenbach</t>
         </is>
       </c>
       <c r="B460" t="b">
@@ -5038,270 +5038,10 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>shan_dannaway</t>
+          <t>annagpedersen22</t>
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>jpsec12</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>carsengracekim</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>nicole.fasano</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>payton.silver</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>jackradziwicz</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>gillian.lefcourt</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>buff_us</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>drake_miller28</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>_mialacey</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>stevekrendl</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>angus.c.m</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>brooke.eliassen</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>chwillyy</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>sal.blumberg</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>henry.coghlin</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>maxgodsil</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>kaylabeebower</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>sam.spotts</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>_ryanbraat</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>mandyatenciofaurot</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>henleyhankins</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>lia.deangelis</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>jordan.rosenbaum</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>chris_karg05</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>matt_dixter</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>tatumjordan_</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
         <v>0</v>
       </c>
     </row>
